--- a/excel/202308.xlsx
+++ b/excel/202308.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -25,13 +25,23 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00FFFFFF"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00A9A9A9"/>
+        <bgColor rgb="00A9A9A9"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -46,8 +56,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -416,178 +429,179 @@
   <dimension ref="A1:AH71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>中文</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>英文</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>08/1</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>08/2</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>08/3</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>08/4</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>08/5</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>08/6</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>08/7</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>08/8</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>08/9</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>08/10</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>08/11</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>08/12</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>08/13</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>08/14</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>08/15</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>08/16</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>08/17</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>08/18</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>08/19</t>
         </is>
       </c>
-      <c r="V1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>08/20</t>
         </is>
       </c>
-      <c r="W1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>08/21</t>
         </is>
       </c>
-      <c r="X1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>08/22</t>
         </is>
       </c>
-      <c r="Y1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>08/23</t>
         </is>
       </c>
-      <c r="Z1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>08/24</t>
         </is>
       </c>
-      <c r="AA1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>08/25</t>
         </is>
       </c>
-      <c r="AB1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>08/26</t>
         </is>
       </c>
-      <c r="AC1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>08/27</t>
         </is>
       </c>
-      <c r="AD1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>08/28</t>
         </is>
       </c>
-      <c r="AE1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>08/29</t>
         </is>
       </c>
-      <c r="AF1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>08/30</t>
         </is>
       </c>
-      <c r="AG1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>08/31</t>
         </is>
       </c>
-      <c r="AH1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>總計</t>
         </is>

--- a/excel/202308.xlsx
+++ b/excel/202308.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH71"/>
+  <dimension ref="A1:AI71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -448,160 +448,165 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>部門</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>08/1</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>08/2</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>08/3</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>08/4</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>08/5</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>08/6</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>08/7</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>08/8</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>08/9</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>08/10</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>08/11</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>08/12</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>08/13</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>08/14</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>08/15</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>08/16</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>08/17</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>08/18</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>08/19</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>08/20</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>08/21</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>08/22</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>08/23</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>08/24</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>08/25</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>08/26</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>08/27</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>08/28</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>08/29</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>08/30</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>08/31</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>總計</t>
         </is>
@@ -610,22 +615,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>郭家渝</t>
+          <t>陳智倫</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Zoe Kuo</t>
+          <t>Frank Chen</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0AA3</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -635,7 +640,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -650,27 +655,27 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -685,27 +690,27 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
@@ -725,7 +730,7 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
@@ -745,7 +750,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
@@ -760,12 +765,12 @@
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
@@ -775,39 +780,44 @@
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>1820</t>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>700</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>陳寶慧</t>
+          <t>黃冠叡</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bao Chen</t>
+          <t>Ray Huang</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0AA35C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -817,32 +827,32 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -852,32 +862,32 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
@@ -907,12 +917,12 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -947,24 +957,29 @@
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>2240</t>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>420</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>李泰儀</t>
+          <t>劉家瑜</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Tyron Lee</t>
+          <t>Scott Liu</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA371</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1064,7 +1079,7 @@
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
@@ -1074,17 +1089,17 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1094,49 +1109,54 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>1260</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>280</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>蔡俊輝</t>
+          <t>林育田</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Alex Tsai</t>
+          <t>Kevin Lin</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA371</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1201,7 +1221,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
@@ -1211,12 +1231,12 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
@@ -1236,7 +1256,7 @@
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
@@ -1266,7 +1286,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
@@ -1291,24 +1311,29 @@
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>560</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>140</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>張維辛</t>
+          <t>陳緯綺</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Darren Chang</t>
+          <t>Vicky Chen</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA371</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1408,79 +1433,84 @@
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>1260</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>280</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>孫偉恭</t>
+          <t>李子豪</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Peter Sun</t>
+          <t>Howard Lee</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA374</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1580,17 +1610,17 @@
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1600,7 +1630,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -1620,39 +1650,44 @@
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>840</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>王耀鋒</t>
+          <t>陳聿恩</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Max Wang</t>
+          <t>Kitty Chen</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA374</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1752,12 +1787,12 @@
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
@@ -1806,6 +1841,11 @@
         </is>
       </c>
       <c r="AH8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr">
         <is>
           <t>140</t>
         </is>
@@ -1814,17 +1854,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>郭家渝</t>
+          <t>吳國彰</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Zoe Kuo</t>
+          <t>Justin Wu</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA374</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1924,7 +1964,7 @@
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
@@ -1939,12 +1979,12 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
@@ -1964,39 +2004,44 @@
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
         <is>
           <t>140</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>840</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>黃承緯</t>
+          <t>葉美妙</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Eric Huang</t>
+          <t>Karen Yeh</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA374</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -2096,12 +2141,12 @@
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
@@ -2150,6 +2195,11 @@
         </is>
       </c>
       <c r="AH10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
         <is>
           <t>140</t>
         </is>
@@ -2158,17 +2208,17 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>郭亮均</t>
+          <t>張潔宜</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Joy Kuo</t>
+          <t>Vivi Chang</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA374</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -2268,12 +2318,12 @@
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
@@ -2322,6 +2372,11 @@
         </is>
       </c>
       <c r="AH11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
         <is>
           <t>140</t>
         </is>
@@ -2330,17 +2385,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>李漩靜</t>
+          <t>朱傑</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Jamie Lee</t>
+          <t>Jason Chu</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA374</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -2440,7 +2495,7 @@
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
@@ -2450,17 +2505,17 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
@@ -2475,44 +2530,49 @@
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>1260</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>140</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>李品于</t>
+          <t>徐茂家</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Spring Lee</t>
+          <t>Mark Hsu</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA375</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -2622,22 +2682,22 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
@@ -2647,7 +2707,7 @@
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr">
@@ -2667,24 +2727,29 @@
       </c>
       <c r="AH13" t="inlineStr">
         <is>
-          <t>1120</t>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>840</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>徐世峰</t>
+          <t>許少凱</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Sam Hsu</t>
+          <t>Kent Hsu</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA375</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -2794,12 +2859,12 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2809,7 +2874,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
@@ -2824,39 +2889,44 @@
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AH14" t="inlineStr">
         <is>
           <t>140</t>
+        </is>
+      </c>
+      <c r="AI14" t="inlineStr">
+        <is>
+          <t>1120</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>江德蓉</t>
+          <t>劉學仁</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Leila Jiang</t>
+          <t>Jason Liu</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA375</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -2891,7 +2961,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -2956,7 +3026,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X15" t="inlineStr">
@@ -3010,6 +3080,11 @@
         </is>
       </c>
       <c r="AH15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI15" t="inlineStr">
         <is>
           <t>140</t>
         </is>
@@ -3018,17 +3093,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>李子豪</t>
+          <t>鄭捷齡</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Howard Lee</t>
+          <t>Cynthia Cheng</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA376</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -3128,7 +3203,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X16" t="inlineStr">
@@ -3143,7 +3218,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -3163,17 +3238,17 @@
       </c>
       <c r="AD16" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE16" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AF16" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AG16" t="inlineStr">
@@ -3183,24 +3258,29 @@
       </c>
       <c r="AH16" t="inlineStr">
         <is>
-          <t>840</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI16" t="inlineStr">
+        <is>
+          <t>140</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>徐茂家</t>
+          <t>吳燕華</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Mark Hsu</t>
+          <t>Isabel Wu</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA376</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -3300,12 +3380,12 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
@@ -3320,7 +3400,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
@@ -3335,44 +3415,49 @@
       </c>
       <c r="AD17" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH17" t="inlineStr">
         <is>
-          <t>840</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI17" t="inlineStr">
+        <is>
+          <t>140</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>陳竑廷</t>
+          <t>沈麗玉</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Jeff Chen</t>
+          <t>Lillian Shan</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA376</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -3472,7 +3557,7 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
@@ -3487,12 +3572,12 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
@@ -3507,7 +3592,7 @@
       </c>
       <c r="AD18" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE18" t="inlineStr">
@@ -3527,24 +3612,29 @@
       </c>
       <c r="AH18" t="inlineStr">
         <is>
-          <t>1260</t>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="AI18" t="inlineStr">
+        <is>
+          <t>840</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>許少凱</t>
+          <t>林子玲</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Kent Hsu</t>
+          <t>Missy Lin</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA376</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -3644,7 +3734,7 @@
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X19" t="inlineStr">
@@ -3654,7 +3744,7 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
@@ -3664,7 +3754,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
@@ -3679,44 +3769,49 @@
       </c>
       <c r="AD19" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE19" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AF19" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AG19" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH19" t="inlineStr">
         <is>
-          <t>1120</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI19" t="inlineStr">
+        <is>
+          <t>140</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>陳聿恩</t>
+          <t>董宇珊</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Kitty Chen</t>
+          <t>Joanne Tung</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA376</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -3816,12 +3911,12 @@
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
@@ -3870,6 +3965,11 @@
         </is>
       </c>
       <c r="AH20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI20" t="inlineStr">
         <is>
           <t>140</t>
         </is>
@@ -3878,17 +3978,17 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>吳國彰</t>
+          <t>李羚榕</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Justin Wu</t>
+          <t>Alison Lee</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA379</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -3993,17 +4093,17 @@
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -4023,44 +4123,49 @@
       </c>
       <c r="AD21" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE21" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AF21" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AG21" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH21" t="inlineStr">
         <is>
-          <t>840</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI21" t="inlineStr">
+        <is>
+          <t>140</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>黃式賢</t>
+          <t>張榕珊</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Shiny Huang</t>
+          <t>Sandy Chang</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA379</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -4165,32 +4270,32 @@
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AD22" t="inlineStr">
@@ -4200,7 +4305,7 @@
       </c>
       <c r="AE22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AF22" t="inlineStr">
@@ -4210,29 +4315,34 @@
       </c>
       <c r="AG22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AH22" t="inlineStr">
         <is>
           <t>140</t>
+        </is>
+      </c>
+      <c r="AI22" t="inlineStr">
+        <is>
+          <t>1400</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>葉美妙</t>
+          <t>林威宇</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Karen Yeh</t>
+          <t>Will Lin</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA379</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -4332,12 +4442,12 @@
       </c>
       <c r="W23" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
@@ -4386,6 +4496,11 @@
         </is>
       </c>
       <c r="AH23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI23" t="inlineStr">
         <is>
           <t>140</t>
         </is>
@@ -4394,17 +4509,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>張潔宜</t>
+          <t>林彥廷</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Vivi Chang</t>
+          <t>Tim Lin</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA379</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -4504,12 +4619,12 @@
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
@@ -4558,6 +4673,11 @@
         </is>
       </c>
       <c r="AH24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI24" t="inlineStr">
         <is>
           <t>140</t>
         </is>
@@ -4566,17 +4686,17 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>朱傑</t>
+          <t>陳楨紘</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Jason Chu</t>
+          <t>Jane Chen</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA379</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -4676,27 +4796,27 @@
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AB25" t="inlineStr">
@@ -4706,7 +4826,7 @@
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AD25" t="inlineStr">
@@ -4716,39 +4836,44 @@
       </c>
       <c r="AE25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AF25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AG25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AH25" t="inlineStr">
         <is>
           <t>140</t>
+        </is>
+      </c>
+      <c r="AI25" t="inlineStr">
+        <is>
+          <t>1260</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>劉學仁</t>
+          <t>吳東穎</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Jason Liu</t>
+          <t>Richie Wu</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA380</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -4778,7 +4903,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -4858,12 +4983,12 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -4888,39 +5013,44 @@
       </c>
       <c r="AE26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AF26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AG26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AH26" t="inlineStr">
         <is>
           <t>140</t>
+        </is>
+      </c>
+      <c r="AI26" t="inlineStr">
+        <is>
+          <t>840</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>徐韡庭</t>
+          <t>徐世峰</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Ada Hsu</t>
+          <t>Sam Hsu</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA381</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -5020,7 +5150,7 @@
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X27" t="inlineStr">
@@ -5030,7 +5160,7 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
@@ -5074,6 +5204,11 @@
         </is>
       </c>
       <c r="AH27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI27" t="inlineStr">
         <is>
           <t>140</t>
         </is>
@@ -5082,17 +5217,17 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>江晏如</t>
+          <t>王素珍</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Jessika Jiang</t>
+          <t>Carol Wang</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA381</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -5192,7 +5327,7 @@
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X28" t="inlineStr">
@@ -5202,12 +5337,12 @@
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -5227,64 +5362,69 @@
       </c>
       <c r="AD28" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE28" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AF28" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AG28" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH28" t="inlineStr">
         <is>
-          <t>1260</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI28" t="inlineStr">
+        <is>
+          <t>280</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>李羚榕</t>
+          <t>陳寶慧</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Alison Lee</t>
+          <t>Bao Chen</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA39</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -5294,32 +5434,32 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -5329,32 +5469,32 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
@@ -5364,7 +5504,7 @@
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X29" t="inlineStr">
@@ -5419,24 +5559,29 @@
       </c>
       <c r="AH29" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI29" t="inlineStr">
+        <is>
+          <t>2240</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>鄭捷齡</t>
+          <t>陳寶慧</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Cynthia Cheng</t>
+          <t>Bao Chen</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA39</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -5536,32 +5681,32 @@
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AC30" t="inlineStr">
@@ -5576,39 +5721,44 @@
       </c>
       <c r="AE30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AF30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AG30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AH30" t="inlineStr">
         <is>
           <t>140</t>
+        </is>
+      </c>
+      <c r="AI30" t="inlineStr">
+        <is>
+          <t>1260</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>張榕珊</t>
+          <t>林雅雪</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Sandy Chang</t>
+          <t>Cher Lin</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA41</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -5708,7 +5858,7 @@
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X31" t="inlineStr">
@@ -5718,17 +5868,17 @@
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AB31" t="inlineStr">
@@ -5743,44 +5893,49 @@
       </c>
       <c r="AD31" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE31" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AF31" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AG31" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH31" t="inlineStr">
         <is>
-          <t>1400</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI31" t="inlineStr">
+        <is>
+          <t>280</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>王貞文</t>
+          <t>孫偉恭</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Jane Wang</t>
+          <t>Peter Sun</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA4B</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -5880,7 +6035,7 @@
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X32" t="inlineStr">
@@ -5890,7 +6045,7 @@
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z32" t="inlineStr">
@@ -5900,7 +6055,7 @@
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AB32" t="inlineStr">
@@ -5915,44 +6070,49 @@
       </c>
       <c r="AD32" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE32" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AF32" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AG32" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH32" t="inlineStr">
         <is>
-          <t>1120</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI32" t="inlineStr">
+        <is>
+          <t>140</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>林威宇</t>
+          <t>王貞文</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Will Lin</t>
+          <t>Jane Wang</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA4B</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -6052,22 +6212,22 @@
       </c>
       <c r="W33" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
@@ -6077,7 +6237,7 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AC33" t="inlineStr">
@@ -6092,39 +6252,44 @@
       </c>
       <c r="AE33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AF33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AG33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AH33" t="inlineStr">
         <is>
           <t>140</t>
+        </is>
+      </c>
+      <c r="AI33" t="inlineStr">
+        <is>
+          <t>1120</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>林雅雪</t>
+          <t>江晏如</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Cher Lin</t>
+          <t>Jessika Jiang</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA4CA</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -6224,22 +6389,22 @@
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
@@ -6249,7 +6414,7 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AC34" t="inlineStr">
@@ -6264,39 +6429,44 @@
       </c>
       <c r="AE34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AF34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AG34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AH34" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="AI34" t="inlineStr">
+        <is>
+          <t>1260</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>吳燕華</t>
+          <t>張軒瑜</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Isabel Wu</t>
+          <t>Mark Chang</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA4CA</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -6386,7 +6556,7 @@
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
@@ -6396,7 +6566,7 @@
       </c>
       <c r="W35" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X35" t="inlineStr">
@@ -6450,6 +6620,11 @@
         </is>
       </c>
       <c r="AH35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI35" t="inlineStr">
         <is>
           <t>140</t>
         </is>
@@ -6458,17 +6633,17 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>張軒瑜</t>
+          <t>黃秀菁</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Mark Chang</t>
+          <t>EVA Huang</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA4CA</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -6553,7 +6728,7 @@
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="U36" t="inlineStr">
@@ -6573,7 +6748,7 @@
       </c>
       <c r="X36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Y36" t="inlineStr">
@@ -6622,6 +6797,11 @@
         </is>
       </c>
       <c r="AH36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI36" t="inlineStr">
         <is>
           <t>140</t>
         </is>
@@ -6630,17 +6810,17 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>林彥廷</t>
+          <t>劉嘉鈴</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Tim Lin</t>
+          <t>Nicole Liu</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA4CA</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -6740,32 +6920,32 @@
       </c>
       <c r="W37" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AC37" t="inlineStr">
@@ -6780,39 +6960,44 @@
       </c>
       <c r="AE37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AF37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AG37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AH37" t="inlineStr">
         <is>
           <t>140</t>
+        </is>
+      </c>
+      <c r="AI37" t="inlineStr">
+        <is>
+          <t>1260</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>黃秀菁</t>
+          <t>王縈嫻</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>EVA Huang</t>
+          <t>Ariel Wang</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA4CA</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -6907,37 +7092,37 @@
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="W38" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AC38" t="inlineStr">
@@ -6952,39 +7137,44 @@
       </c>
       <c r="AE38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AF38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AG38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AH38" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI38" t="inlineStr">
+        <is>
+          <t>1260</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>陳楨紘</t>
+          <t>陳麗芳</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Jane Chen</t>
+          <t>Aretha Chen</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA4CA</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -7084,7 +7274,7 @@
       </c>
       <c r="W39" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X39" t="inlineStr">
@@ -7104,7 +7294,7 @@
       </c>
       <c r="AA39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AB39" t="inlineStr">
@@ -7119,12 +7309,12 @@
       </c>
       <c r="AD39" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE39" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AF39" t="inlineStr">
@@ -7139,24 +7329,29 @@
       </c>
       <c r="AH39" t="inlineStr">
         <is>
-          <t>1260</t>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="AI39" t="inlineStr">
+        <is>
+          <t>1120</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>黃冠叡</t>
+          <t>張維辛</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Ray Huang</t>
+          <t>Darren Chang</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA4N1</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -7261,7 +7456,7 @@
       </c>
       <c r="X40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Y40" t="inlineStr">
@@ -7276,12 +7471,12 @@
       </c>
       <c r="AA40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AC40" t="inlineStr">
@@ -7296,12 +7491,12 @@
       </c>
       <c r="AE40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AF40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AG40" t="inlineStr">
@@ -7311,24 +7506,29 @@
       </c>
       <c r="AH40" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="AI40" t="inlineStr">
+        <is>
+          <t>1260</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>吳韻秋</t>
+          <t>王耀鋒</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Yunchiu Wu</t>
+          <t>Max Wang</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA4N1</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -7428,7 +7628,7 @@
       </c>
       <c r="W41" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X41" t="inlineStr">
@@ -7438,12 +7638,12 @@
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
@@ -7463,49 +7663,54 @@
       </c>
       <c r="AD41" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE41" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AF41" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AG41" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH41" t="inlineStr">
         <is>
-          <t>1120</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI41" t="inlineStr">
+        <is>
+          <t>140</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>徐國財</t>
+          <t>陳竑廷</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Richard Hsu</t>
+          <t>Jeff Chen</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0AA4N1</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -7515,7 +7720,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -7530,27 +7735,27 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -7565,27 +7770,27 @@
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T42" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0</t>
         </is>
       </c>
       <c r="U42" t="inlineStr">
@@ -7600,22 +7805,22 @@
       </c>
       <c r="W42" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X42" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
@@ -7625,7 +7830,7 @@
       </c>
       <c r="AB42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AC42" t="inlineStr">
@@ -7635,44 +7840,49 @@
       </c>
       <c r="AD42" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE42" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AF42" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AG42" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AH42" t="inlineStr">
         <is>
-          <t>2319</t>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="AI42" t="inlineStr">
+        <is>
+          <t>1260</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>劉嘉鈴</t>
+          <t>徐韡庭</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Nicole Liu</t>
+          <t>Ada Hsu</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA4N1</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -7772,7 +7982,7 @@
       </c>
       <c r="W43" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X43" t="inlineStr">
@@ -7782,17 +7992,17 @@
       </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AB43" t="inlineStr">
@@ -7807,44 +8017,49 @@
       </c>
       <c r="AD43" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE43" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AF43" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AG43" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH43" t="inlineStr">
         <is>
-          <t>1260</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI43" t="inlineStr">
+        <is>
+          <t>140</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>陳寶慧</t>
+          <t>吳韻秋</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Bao Chen</t>
+          <t>Yunchiu Wu</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA4N1</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -7944,7 +8159,7 @@
       </c>
       <c r="W44" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X44" t="inlineStr">
@@ -7979,7 +8194,7 @@
       </c>
       <c r="AD44" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE44" t="inlineStr">
@@ -7999,24 +8214,29 @@
       </c>
       <c r="AH44" t="inlineStr">
         <is>
-          <t>1260</t>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="AI44" t="inlineStr">
+        <is>
+          <t>1120</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>王縈嫻</t>
+          <t>曾珮郁</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Ariel Wang</t>
+          <t>Eunice Tseng</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA4S2</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -8106,7 +8326,7 @@
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
@@ -8116,7 +8336,7 @@
       </c>
       <c r="W45" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X45" t="inlineStr">
@@ -8141,7 +8361,7 @@
       </c>
       <c r="AB45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AC45" t="inlineStr">
@@ -8151,7 +8371,7 @@
       </c>
       <c r="AD45" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE45" t="inlineStr">
@@ -8166,10 +8386,15 @@
       </c>
       <c r="AG45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AH45" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="AI45" t="inlineStr">
         <is>
           <t>1260</t>
         </is>
@@ -8178,17 +8403,17 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>吳東穎</t>
+          <t>黃榮昌</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Richie Wu</t>
+          <t>Hothwang Huang</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA4S2</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -8303,17 +8528,17 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AB46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AC46" t="inlineStr">
@@ -8323,7 +8548,7 @@
       </c>
       <c r="AD46" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE46" t="inlineStr">
@@ -8343,24 +8568,29 @@
       </c>
       <c r="AH46" t="inlineStr">
         <is>
-          <t>840</t>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="AI46" t="inlineStr">
+        <is>
+          <t>1260</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>陳麗芳</t>
+          <t>吳建霖</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Aretha Chen</t>
+          <t>ChienLin Wu</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA4S2</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -8460,12 +8690,12 @@
       </c>
       <c r="W47" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X47" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Y47" t="inlineStr">
@@ -8475,7 +8705,7 @@
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
@@ -8485,7 +8715,7 @@
       </c>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AC47" t="inlineStr">
@@ -8515,24 +8745,29 @@
       </c>
       <c r="AH47" t="inlineStr">
         <is>
-          <t>1120</t>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="AI47" t="inlineStr">
+        <is>
+          <t>980</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>謝昔祥</t>
+          <t>劉勝雄</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Adonis Hsieh</t>
+          <t>Vincent Liu</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA6</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -8632,27 +8867,27 @@
       </c>
       <c r="W48" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X48" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AB48" t="inlineStr">
@@ -8667,7 +8902,7 @@
       </c>
       <c r="AD48" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE48" t="inlineStr">
@@ -8677,44 +8912,49 @@
       </c>
       <c r="AF48" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AG48" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH48" t="inlineStr">
         <is>
-          <t>1260</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI48" t="inlineStr">
+        <is>
+          <t>140</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>王素珍</t>
+          <t>徐國財</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Carol Wang</t>
+          <t>Richard Hsu</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA80</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -8724,7 +8964,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -8739,27 +8979,27 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
@@ -8774,27 +9014,27 @@
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="T49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
@@ -8804,32 +9044,32 @@
       </c>
       <c r="W49" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="Y49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>100</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="AB49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AC49" t="inlineStr">
@@ -8844,39 +9084,44 @@
       </c>
       <c r="AE49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>99</t>
         </is>
       </c>
       <c r="AF49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="AG49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="AH49" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="AI49" t="inlineStr">
+        <is>
+          <t>2319</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>劉勝雄</t>
+          <t>黃式賢</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Vincent Liu</t>
+          <t>Shiny Huang</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA81</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -9011,7 +9256,7 @@
       </c>
       <c r="AD50" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE50" t="inlineStr">
@@ -9026,10 +9271,15 @@
       </c>
       <c r="AG50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AH50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI50" t="inlineStr">
         <is>
           <t>140</t>
         </is>
@@ -9038,17 +9288,17 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>莊正忠</t>
+          <t>李泰儀</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Hugo Chuang</t>
+          <t>Tyron Lee</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA9</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -9148,7 +9398,7 @@
       </c>
       <c r="W51" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X51" t="inlineStr">
@@ -9173,7 +9423,7 @@
       </c>
       <c r="AB51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AC51" t="inlineStr">
@@ -9183,7 +9433,7 @@
       </c>
       <c r="AD51" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE51" t="inlineStr">
@@ -9202,6 +9452,11 @@
         </is>
       </c>
       <c r="AH51" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="AI51" t="inlineStr">
         <is>
           <t>1260</t>
         </is>
@@ -9210,17 +9465,17 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>陳智倫</t>
+          <t>徐儷珊</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Frank Chen</t>
+          <t>Lisan Hsu</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA940</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -9320,7 +9575,7 @@
       </c>
       <c r="W52" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X52" t="inlineStr">
@@ -9355,12 +9610,12 @@
       </c>
       <c r="AD52" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE52" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AF52" t="inlineStr">
@@ -9370,29 +9625,34 @@
       </c>
       <c r="AG52" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH52" t="inlineStr">
         <is>
-          <t>700</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI52" t="inlineStr">
+        <is>
+          <t>140</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>陳璜琪</t>
+          <t>莊正忠</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Vincent Chen</t>
+          <t>Hugo Chuang</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA95</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -9492,7 +9752,7 @@
       </c>
       <c r="W53" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X53" t="inlineStr">
@@ -9517,7 +9777,7 @@
       </c>
       <c r="AB53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AC53" t="inlineStr">
@@ -9532,39 +9792,44 @@
       </c>
       <c r="AE53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AF53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AG53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AH53" t="inlineStr">
         <is>
-          <t>700</t>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="AI53" t="inlineStr">
+        <is>
+          <t>1260</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>劉家瑜</t>
+          <t>李俊賢</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Scott Liu</t>
+          <t>Kiven Lee</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA95</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -9664,27 +9929,27 @@
       </c>
       <c r="W54" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Y54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>440</t>
         </is>
       </c>
       <c r="AB54" t="inlineStr">
@@ -9704,39 +9969,44 @@
       </c>
       <c r="AE54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AF54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AG54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AH54" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="AI54" t="inlineStr">
+        <is>
+          <t>1560</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>林華宸</t>
+          <t>蔡俊輝</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Wayne Lin</t>
+          <t>Alex Tsai</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0B</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -9806,7 +10076,7 @@
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
@@ -9816,12 +10086,12 @@
       </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="T55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="U55" t="inlineStr">
@@ -9836,7 +10106,7 @@
       </c>
       <c r="W55" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X55" t="inlineStr">
@@ -9846,17 +10116,17 @@
       </c>
       <c r="Y55" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AB55" t="inlineStr">
@@ -9871,54 +10141,59 @@
       </c>
       <c r="AD55" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE55" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AF55" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AG55" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH55" t="inlineStr">
         <is>
-          <t>1260</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI55" t="inlineStr">
+        <is>
+          <t>560</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>張雅惠</t>
+          <t>郭家渝</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Sofeya Chang</t>
+          <t>Zoe Kuo</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2AA8A</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -9928,7 +10203,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -9943,27 +10218,27 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
@@ -9978,27 +10253,27 @@
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="S56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="T56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
@@ -10008,27 +10283,27 @@
       </c>
       <c r="W56" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X56" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Y56" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AB56" t="inlineStr">
@@ -10043,44 +10318,49 @@
       </c>
       <c r="AD56" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE56" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AF56" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AG56" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH56" t="inlineStr">
         <is>
-          <t>1260</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI56" t="inlineStr">
+        <is>
+          <t>1820</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>李俊賢</t>
+          <t>郭家渝</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Kiven Lee</t>
+          <t>Zoe Kuo</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2AA8A</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -10180,7 +10460,7 @@
       </c>
       <c r="W57" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X57" t="inlineStr">
@@ -10190,17 +10470,17 @@
       </c>
       <c r="Y57" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AB57" t="inlineStr">
@@ -10215,44 +10495,49 @@
       </c>
       <c r="AD57" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE57" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AF57" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AG57" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH57" t="inlineStr">
         <is>
-          <t>1560</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI57" t="inlineStr">
+        <is>
+          <t>140</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>沈麗玉</t>
+          <t>黃承緯</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Lillian Shan</t>
+          <t>Eric Huang</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2AA8A</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -10352,7 +10637,7 @@
       </c>
       <c r="W58" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X58" t="inlineStr">
@@ -10387,44 +10672,49 @@
       </c>
       <c r="AD58" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE58" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AF58" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AG58" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH58" t="inlineStr">
         <is>
-          <t>840</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI58" t="inlineStr">
+        <is>
+          <t>140</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>蔡明彬</t>
+          <t>郭亮均</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Jeff Tsai</t>
+          <t>Joy Kuo</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2AA8A</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -10524,7 +10814,7 @@
       </c>
       <c r="W59" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X59" t="inlineStr">
@@ -10534,17 +10824,17 @@
       </c>
       <c r="Y59" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA59" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AB59" t="inlineStr">
@@ -10559,44 +10849,49 @@
       </c>
       <c r="AD59" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE59" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AF59" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AG59" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH59" t="inlineStr">
         <is>
-          <t>1260</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI59" t="inlineStr">
+        <is>
+          <t>140</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>曾珮郁</t>
+          <t>李漩靜</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Eunice Tseng</t>
+          <t>Jamie Lee</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2AA8A</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -10696,7 +10991,7 @@
       </c>
       <c r="W60" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X60" t="inlineStr">
@@ -10721,7 +11016,7 @@
       </c>
       <c r="AB60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AC60" t="inlineStr">
@@ -10731,7 +11026,7 @@
       </c>
       <c r="AD60" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE60" t="inlineStr">
@@ -10750,6 +11045,11 @@
         </is>
       </c>
       <c r="AH60" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="AI60" t="inlineStr">
         <is>
           <t>1260</t>
         </is>
@@ -10758,17 +11058,17 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>林育田</t>
+          <t>李品于</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Kevin Lin</t>
+          <t>Spring Lee</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2AA8A</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -10878,17 +11178,17 @@
       </c>
       <c r="Y61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AA61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AB61" t="inlineStr">
@@ -10908,39 +11208,44 @@
       </c>
       <c r="AE61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AF61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AG61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AH61" t="inlineStr">
         <is>
           <t>140</t>
+        </is>
+      </c>
+      <c r="AI61" t="inlineStr">
+        <is>
+          <t>1120</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>黃榮昌</t>
+          <t>江德蓉</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Hothwang Huang</t>
+          <t>Leila Jiang</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2AA8C</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -11040,7 +11345,7 @@
       </c>
       <c r="W62" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X62" t="inlineStr">
@@ -11050,17 +11355,17 @@
       </c>
       <c r="Y62" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA62" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AB62" t="inlineStr">
@@ -11075,44 +11380,49 @@
       </c>
       <c r="AD62" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE62" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AF62" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AG62" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH62" t="inlineStr">
         <is>
-          <t>1260</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI62" t="inlineStr">
+        <is>
+          <t>140</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>林子玲</t>
+          <t>謝昔祥</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Missy Lin</t>
+          <t>Adonis Hsieh</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2AA8C</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -11212,32 +11522,32 @@
       </c>
       <c r="W63" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Y63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AA63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AB63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AC63" t="inlineStr">
@@ -11252,39 +11562,44 @@
       </c>
       <c r="AE63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AF63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AG63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AH63" t="inlineStr">
         <is>
           <t>140</t>
+        </is>
+      </c>
+      <c r="AI63" t="inlineStr">
+        <is>
+          <t>1260</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>胡美燕</t>
+          <t>陳璜琪</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>May Hu</t>
+          <t>Vincent Chen</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2AA8C</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -11384,32 +11699,32 @@
       </c>
       <c r="W64" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Y64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AA64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AB64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AC64" t="inlineStr">
@@ -11439,44 +11754,49 @@
       </c>
       <c r="AH64" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI64" t="inlineStr">
+        <is>
+          <t>700</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>董宇珊</t>
+          <t>謝勝旭</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Joanne Tung</t>
+          <t>Benjamin Hsieh</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2AA8D</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -11491,27 +11811,27 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
@@ -11526,27 +11846,27 @@
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="S65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="T65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
@@ -11556,7 +11876,7 @@
       </c>
       <c r="W65" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X65" t="inlineStr">
@@ -11611,24 +11931,29 @@
       </c>
       <c r="AH65" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI65" t="inlineStr">
+        <is>
+          <t>1960</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>吳建霖</t>
+          <t>謝勝旭</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>ChienLin Wu</t>
+          <t>Benjamin Hsieh</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2AA8D</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -11733,12 +12058,12 @@
       </c>
       <c r="X66" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Y66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Z66" t="inlineStr">
@@ -11748,7 +12073,7 @@
       </c>
       <c r="AA66" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AB66" t="inlineStr">
@@ -11763,7 +12088,7 @@
       </c>
       <c r="AD66" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE66" t="inlineStr">
@@ -11783,24 +12108,29 @@
       </c>
       <c r="AH66" t="inlineStr">
         <is>
-          <t>980</t>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="AI66" t="inlineStr">
+        <is>
+          <t>840</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>徐儷珊</t>
+          <t>林華宸</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Lisan Hsu</t>
+          <t>Wayne Lin</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2AA8S</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -11905,12 +12235,12 @@
       </c>
       <c r="X67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Y67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Z67" t="inlineStr">
@@ -11920,12 +12250,12 @@
       </c>
       <c r="AA67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AB67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AC67" t="inlineStr">
@@ -11940,54 +12270,59 @@
       </c>
       <c r="AE67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AF67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AG67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AH67" t="inlineStr">
         <is>
           <t>140</t>
+        </is>
+      </c>
+      <c r="AI67" t="inlineStr">
+        <is>
+          <t>1260</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>謝勝旭</t>
+          <t>張雅惠</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Benjamin Hsieh</t>
+          <t>Sofeya Chang</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>2AA8S</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -12002,27 +12337,27 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
@@ -12037,27 +12372,27 @@
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S68" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T68" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="U68" t="inlineStr">
@@ -12077,27 +12412,27 @@
       </c>
       <c r="X68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Y68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AA68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AB68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AC68" t="inlineStr">
@@ -12112,39 +12447,44 @@
       </c>
       <c r="AE68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AF68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AG68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AH68" t="inlineStr">
         <is>
-          <t>1960</t>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="AI68" t="inlineStr">
+        <is>
+          <t>1260</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>謝勝旭</t>
+          <t>蔡明彬</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Benjamin Hsieh</t>
+          <t>Jeff Tsai</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2AA8S</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -12259,17 +12599,17 @@
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AA69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AB69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AC69" t="inlineStr">
@@ -12279,7 +12619,7 @@
       </c>
       <c r="AD69" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE69" t="inlineStr">
@@ -12299,24 +12639,29 @@
       </c>
       <c r="AH69" t="inlineStr">
         <is>
-          <t>840</t>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="AI69" t="inlineStr">
+        <is>
+          <t>1260</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>陳緯綺</t>
+          <t>胡美燕</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Vicky Chen</t>
+          <t>May Hu</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2AA8S</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -12421,7 +12766,7 @@
       </c>
       <c r="X70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Y70" t="inlineStr">
@@ -12436,12 +12781,12 @@
       </c>
       <c r="AA70" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AB70" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AC70" t="inlineStr">
@@ -12471,7 +12816,12 @@
       </c>
       <c r="AH70" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI70" t="inlineStr">
+        <is>
+          <t>140</t>
         </is>
       </c>
     </row>
@@ -12486,162 +12836,162 @@
           <t>08</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="D71" t="inlineStr">
         <is>
           <t>520</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>520</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>280</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>560</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
           <t>660</t>
         </is>
       </c>
-      <c r="J71" t="inlineStr">
+      <c r="K71" t="inlineStr">
         <is>
           <t>520</t>
         </is>
       </c>
-      <c r="K71" t="inlineStr">
+      <c r="L71" t="inlineStr">
         <is>
           <t>520</t>
         </is>
       </c>
-      <c r="L71" t="inlineStr">
+      <c r="M71" t="inlineStr">
         <is>
           <t>560</t>
         </is>
       </c>
-      <c r="M71" t="inlineStr">
+      <c r="N71" t="inlineStr">
         <is>
           <t>520</t>
         </is>
       </c>
-      <c r="N71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P71" t="inlineStr">
         <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
           <t>660</t>
         </is>
       </c>
-      <c r="Q71" t="inlineStr">
+      <c r="R71" t="inlineStr">
         <is>
           <t>520</t>
         </is>
       </c>
-      <c r="R71" t="inlineStr">
+      <c r="S71" t="inlineStr">
         <is>
           <t>660</t>
         </is>
       </c>
-      <c r="S71" t="inlineStr">
+      <c r="T71" t="inlineStr">
         <is>
           <t>660</t>
         </is>
       </c>
-      <c r="T71" t="inlineStr">
+      <c r="U71" t="inlineStr">
         <is>
           <t>660</t>
         </is>
       </c>
-      <c r="U71" t="inlineStr">
-        <is>
-          <t>140</t>
-        </is>
-      </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="W71" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X71" t="inlineStr">
+        <is>
           <t>7,240</t>
         </is>
       </c>
-      <c r="X71" t="inlineStr">
+      <c r="Y71" t="inlineStr">
         <is>
           <t>4,300</t>
         </is>
       </c>
-      <c r="Y71" t="inlineStr">
+      <c r="Z71" t="inlineStr">
         <is>
           <t>4,020</t>
         </is>
       </c>
-      <c r="Z71" t="inlineStr">
+      <c r="AA71" t="inlineStr">
         <is>
           <t>4,320</t>
         </is>
       </c>
-      <c r="AA71" t="inlineStr">
+      <c r="AB71" t="inlineStr">
         <is>
           <t>3,920</t>
         </is>
       </c>
-      <c r="AB71" t="inlineStr">
+      <c r="AC71" t="inlineStr">
         <is>
           <t>700</t>
         </is>
       </c>
-      <c r="AC71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AD71" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AE71" t="inlineStr">
+        <is>
           <t>4,439</t>
         </is>
       </c>
-      <c r="AE71" t="inlineStr">
+      <c r="AF71" t="inlineStr">
         <is>
           <t>4,440</t>
         </is>
       </c>
-      <c r="AF71" t="inlineStr">
+      <c r="AG71" t="inlineStr">
         <is>
           <t>4,440</t>
         </is>
       </c>
-      <c r="AG71" t="inlineStr">
+      <c r="AH71" t="inlineStr">
         <is>
           <t>4,300</t>
         </is>
       </c>
-      <c r="AH71" t="inlineStr">
+      <c r="AI71" t="inlineStr">
         <is>
           <t>50,359</t>
         </is>

--- a/excel/202308.xlsx
+++ b/excel/202308.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI71"/>
+  <dimension ref="A1:AI68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1797,17 +1797,17 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
@@ -1827,27 +1827,27 @@
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>1120</t>
         </is>
       </c>
     </row>
@@ -2151,17 +2151,17 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
@@ -2171,7 +2171,7 @@
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
@@ -2181,27 +2181,27 @@
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>1260</t>
         </is>
       </c>
     </row>
@@ -2328,17 +2328,17 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
@@ -2358,27 +2358,27 @@
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>1120</t>
         </is>
       </c>
     </row>
@@ -2505,17 +2505,17 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
@@ -2535,27 +2535,27 @@
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>1120</t>
         </is>
       </c>
     </row>
@@ -2869,7 +2869,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
@@ -2909,7 +2909,7 @@
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>1120</t>
+          <t>1260</t>
         </is>
       </c>
     </row>
@@ -3031,27 +3031,27 @@
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AC15" t="inlineStr">
@@ -3066,27 +3066,27 @@
       </c>
       <c r="AE15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AF15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AG15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AH15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>1400</t>
         </is>
       </c>
     </row>
@@ -3213,12 +3213,12 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -3228,7 +3228,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AC16" t="inlineStr">
@@ -3243,27 +3243,27 @@
       </c>
       <c r="AE16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AF16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AG16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AH16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>1120</t>
         </is>
       </c>
     </row>
@@ -3390,7 +3390,7 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
@@ -3405,7 +3405,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
@@ -3420,27 +3420,27 @@
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AH17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>980</t>
         </is>
       </c>
     </row>
@@ -3572,17 +3572,17 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr">
@@ -3617,7 +3617,7 @@
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>840</t>
+          <t>1260</t>
         </is>
       </c>
     </row>
@@ -3744,12 +3744,12 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -3759,7 +3759,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AC19" t="inlineStr">
@@ -3774,27 +3774,27 @@
       </c>
       <c r="AE19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AF19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AG19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AH19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AI19" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>1120</t>
         </is>
       </c>
     </row>
@@ -3921,12 +3921,12 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -3936,7 +3936,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AC20" t="inlineStr">
@@ -3951,27 +3951,27 @@
       </c>
       <c r="AE20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AF20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AG20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AH20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AI20" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>1120</t>
         </is>
       </c>
     </row>
@@ -4098,7 +4098,7 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
@@ -4108,7 +4108,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AB21" t="inlineStr">
@@ -4118,7 +4118,7 @@
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AD21" t="inlineStr">
@@ -4128,27 +4128,27 @@
       </c>
       <c r="AE21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AF21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AG21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AH21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AI21" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>1120</t>
         </is>
       </c>
     </row>
@@ -4452,17 +4452,17 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AB23" t="inlineStr">
@@ -4472,7 +4472,7 @@
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AD23" t="inlineStr">
@@ -4482,27 +4482,27 @@
       </c>
       <c r="AE23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AF23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AG23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AH23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AI23" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>1260</t>
         </is>
       </c>
     </row>
@@ -4629,17 +4629,17 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AB24" t="inlineStr">
@@ -4649,7 +4649,7 @@
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AD24" t="inlineStr">
@@ -4659,27 +4659,27 @@
       </c>
       <c r="AE24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AF24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AG24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AH24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AI24" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>1260</t>
         </is>
       </c>
     </row>
@@ -5155,7 +5155,7 @@
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr">
@@ -5165,12 +5165,12 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AB27" t="inlineStr">
@@ -5180,7 +5180,7 @@
       </c>
       <c r="AC27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AD27" t="inlineStr">
@@ -5205,12 +5205,12 @@
       </c>
       <c r="AH27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AI27" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>840</t>
         </is>
       </c>
     </row>
@@ -5337,7 +5337,7 @@
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
@@ -5367,27 +5367,27 @@
       </c>
       <c r="AE28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AF28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AG28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AH28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AI28" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>980</t>
         </is>
       </c>
     </row>
@@ -5509,27 +5509,27 @@
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AC29" t="inlineStr">
@@ -5544,44 +5544,44 @@
       </c>
       <c r="AE29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AF29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AG29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AH29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AI29" t="inlineStr">
         <is>
-          <t>2240</t>
+          <t>3500</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>陳寶慧</t>
+          <t>林雅雪</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Bao Chen</t>
+          <t>Cher Lin</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0AA39</t>
+          <t>0AA41</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -5691,17 +5691,17 @@
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AB30" t="inlineStr">
@@ -5721,44 +5721,44 @@
       </c>
       <c r="AE30" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AF30" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AG30" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH30" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AI30" t="inlineStr">
         <is>
-          <t>1260</t>
+          <t>280</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>林雅雪</t>
+          <t>孫偉恭</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Cher Lin</t>
+          <t>Peter Sun</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0AA41</t>
+          <t>0AA4B</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -5868,17 +5868,17 @@
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AB31" t="inlineStr">
@@ -5898,39 +5898,39 @@
       </c>
       <c r="AE31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AF31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AG31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AH31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AI31" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>1260</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>孫偉恭</t>
+          <t>王貞文</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Peter Sun</t>
+          <t>Jane Wang</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -6045,22 +6045,22 @@
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AC32" t="inlineStr">
@@ -6075,44 +6075,44 @@
       </c>
       <c r="AE32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AF32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AG32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AH32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AI32" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>1260</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>王貞文</t>
+          <t>江晏如</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Jane Wang</t>
+          <t>Jessika Jiang</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0AA4B</t>
+          <t>0AA4CA</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AB33" t="inlineStr">
@@ -6272,19 +6272,19 @@
       </c>
       <c r="AI33" t="inlineStr">
         <is>
-          <t>1120</t>
+          <t>1260</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>江晏如</t>
+          <t>張軒瑜</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Jessika Jiang</t>
+          <t>Mark Chang</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -6379,7 +6379,7 @@
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
@@ -6449,19 +6449,19 @@
       </c>
       <c r="AI34" t="inlineStr">
         <is>
-          <t>1260</t>
+          <t>1400</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>張軒瑜</t>
+          <t>黃秀菁</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Mark Chang</t>
+          <t>EVA Huang</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -6556,7 +6556,7 @@
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
@@ -6571,27 +6571,27 @@
       </c>
       <c r="X35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AC35" t="inlineStr">
@@ -6606,39 +6606,39 @@
       </c>
       <c r="AE35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AF35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AG35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AH35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AI35" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>1260</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>黃秀菁</t>
+          <t>劉嘉鈴</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>EVA Huang</t>
+          <t>Nicole Liu</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -6753,22 +6753,22 @@
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AC36" t="inlineStr">
@@ -6783,39 +6783,39 @@
       </c>
       <c r="AE36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AF36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AG36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AH36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AI36" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>1260</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>劉嘉鈴</t>
+          <t>王縈嫻</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Nicole Liu</t>
+          <t>Ariel Wang</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -6915,7 +6915,7 @@
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="W37" t="inlineStr">
@@ -6980,19 +6980,19 @@
       </c>
       <c r="AI37" t="inlineStr">
         <is>
-          <t>1260</t>
+          <t>1400</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>王縈嫻</t>
+          <t>陳麗芳</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Ariel Wang</t>
+          <t>Aretha Chen</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -7092,7 +7092,7 @@
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="W38" t="inlineStr">
@@ -7137,7 +7137,7 @@
       </c>
       <c r="AE38" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AF38" t="inlineStr">
@@ -7152,29 +7152,29 @@
       </c>
       <c r="AH38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AI38" t="inlineStr">
         <is>
-          <t>1260</t>
+          <t>1120</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>陳麗芳</t>
+          <t>張維辛</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Aretha Chen</t>
+          <t>Darren Chang</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>0AA4CA</t>
+          <t>0AA4N1</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -7314,7 +7314,7 @@
       </c>
       <c r="AE39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AF39" t="inlineStr">
@@ -7334,19 +7334,19 @@
       </c>
       <c r="AI39" t="inlineStr">
         <is>
-          <t>1120</t>
+          <t>1260</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>張維辛</t>
+          <t>王耀鋒</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Darren Chang</t>
+          <t>Max Wang</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -7518,12 +7518,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>王耀鋒</t>
+          <t>陳竑廷</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Max Wang</t>
+          <t>Jeff Chen</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -7638,22 +7638,22 @@
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AB41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AC41" t="inlineStr">
@@ -7668,39 +7668,39 @@
       </c>
       <c r="AE41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AF41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AG41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AH41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AI41" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>1260</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>陳竑廷</t>
+          <t>徐韡庭</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Jeff Chen</t>
+          <t>Ada Hsu</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -7872,12 +7872,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>徐韡庭</t>
+          <t>吳韻秋</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Ada Hsu</t>
+          <t>Yunchiu Wu</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -7992,22 +7992,22 @@
       </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AC43" t="inlineStr">
@@ -8022,44 +8022,44 @@
       </c>
       <c r="AE43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AF43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AG43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AH43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AI43" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>1260</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>吳韻秋</t>
+          <t>曾珮郁</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Yunchiu Wu</t>
+          <t>Eunice Tseng</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>0AA4N1</t>
+          <t>0AA4S2</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -8184,7 +8184,7 @@
       </c>
       <c r="AB44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AC44" t="inlineStr">
@@ -8219,19 +8219,19 @@
       </c>
       <c r="AI44" t="inlineStr">
         <is>
-          <t>1120</t>
+          <t>1260</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>曾珮郁</t>
+          <t>黃榮昌</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Eunice Tseng</t>
+          <t>Hothwang Huang</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -8403,12 +8403,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>黃榮昌</t>
+          <t>吳建霖</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Hothwang Huang</t>
+          <t>ChienLin Wu</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -8580,17 +8580,17 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>吳建霖</t>
+          <t>劉勝雄</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>ChienLin Wu</t>
+          <t>Vincent Liu</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>0AA4S2</t>
+          <t>0AA6</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -8700,7 +8700,7 @@
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z47" t="inlineStr">
@@ -8710,12 +8710,12 @@
       </c>
       <c r="AA47" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AC47" t="inlineStr">
@@ -8735,49 +8735,49 @@
       </c>
       <c r="AF47" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AG47" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH47" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AI47" t="inlineStr">
         <is>
-          <t>980</t>
+          <t>140</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>劉勝雄</t>
+          <t>徐國財</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Vincent Liu</t>
+          <t>Richard Hsu</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>0AA6</t>
+          <t>0AA80</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -8787,7 +8787,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -8802,27 +8802,27 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -8837,27 +8837,27 @@
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="T48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
@@ -8872,27 +8872,27 @@
       </c>
       <c r="X48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AC48" t="inlineStr">
@@ -8907,54 +8907,54 @@
       </c>
       <c r="AE48" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>99</t>
         </is>
       </c>
       <c r="AF48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="AG48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="AH48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="AI48" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>2319</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>徐國財</t>
+          <t>黃式賢</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Richard Hsu</t>
+          <t>Shiny Huang</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>0AA80</t>
+          <t>0AA81</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -8964,7 +8964,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -8979,27 +8979,27 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
@@ -9014,27 +9014,27 @@
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T49" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0</t>
         </is>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
@@ -9049,27 +9049,27 @@
       </c>
       <c r="X49" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Y49" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AB49" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AC49" t="inlineStr">
@@ -9084,44 +9084,44 @@
       </c>
       <c r="AE49" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AF49" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AG49" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AH49" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AI49" t="inlineStr">
         <is>
-          <t>2319</t>
+          <t>140</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>黃式賢</t>
+          <t>李泰儀</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Shiny Huang</t>
+          <t>Tyron Lee</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>0AA81</t>
+          <t>0AA9</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -9226,27 +9226,27 @@
       </c>
       <c r="X50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Y50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AB50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AC50" t="inlineStr">
@@ -9261,12 +9261,12 @@
       </c>
       <c r="AE50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AF50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AG50" t="inlineStr">
@@ -9276,29 +9276,29 @@
       </c>
       <c r="AH50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AI50" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>1260</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>李泰儀</t>
+          <t>徐儷珊</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Tyron Lee</t>
+          <t>Lisan Hsu</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>0AA9</t>
+          <t>0AA940</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -9403,17 +9403,17 @@
       </c>
       <c r="X51" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
@@ -9428,7 +9428,7 @@
       </c>
       <c r="AC51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AD51" t="inlineStr">
@@ -9438,44 +9438,44 @@
       </c>
       <c r="AE51" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AF51" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AG51" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH51" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AI51" t="inlineStr">
         <is>
-          <t>1260</t>
+          <t>420</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>徐儷珊</t>
+          <t>莊正忠</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Lisan Hsu</t>
+          <t>Hugo Chuang</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>0AA940</t>
+          <t>0AA95</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -9580,17 +9580,17 @@
       </c>
       <c r="X52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Y52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
@@ -9600,7 +9600,7 @@
       </c>
       <c r="AB52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AC52" t="inlineStr">
@@ -9615,39 +9615,39 @@
       </c>
       <c r="AE52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AF52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AG52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AH52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AI52" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>1260</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>莊正忠</t>
+          <t>李俊賢</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Hugo Chuang</t>
+          <t>Kiven Lee</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -9772,7 +9772,7 @@
       </c>
       <c r="AA53" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>440</t>
         </is>
       </c>
       <c r="AB53" t="inlineStr">
@@ -9812,24 +9812,24 @@
       </c>
       <c r="AI53" t="inlineStr">
         <is>
-          <t>1260</t>
+          <t>1560</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>李俊賢</t>
+          <t>蔡俊輝</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Kiven Lee</t>
+          <t>Alex Tsai</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>0AA95</t>
+          <t>0B</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -9899,7 +9899,7 @@
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
@@ -9909,12 +9909,12 @@
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="T54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="U54" t="inlineStr">
@@ -9939,22 +9939,22 @@
       </c>
       <c r="Y54" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AB54" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AC54" t="inlineStr">
@@ -9969,54 +9969,54 @@
       </c>
       <c r="AE54" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AF54" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AG54" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH54" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AI54" t="inlineStr">
         <is>
-          <t>1560</t>
+          <t>560</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>蔡俊輝</t>
+          <t>郭家渝</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Alex Tsai</t>
+          <t>Zoe Kuo</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>0B</t>
+          <t>2AA8A</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -10026,7 +10026,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -10041,27 +10041,27 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
@@ -10081,7 +10081,7 @@
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="S55" t="inlineStr">
@@ -10096,7 +10096,7 @@
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
@@ -10116,22 +10116,22 @@
       </c>
       <c r="Y55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AB55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AC55" t="inlineStr">
@@ -10146,39 +10146,39 @@
       </c>
       <c r="AE55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AF55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AG55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AH55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AI55" t="inlineStr">
         <is>
-          <t>560</t>
+          <t>3080</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>郭家渝</t>
+          <t>黃承緯</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Zoe Kuo</t>
+          <t>Eric Huang</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -10188,12 +10188,12 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -10203,7 +10203,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -10218,27 +10218,27 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
@@ -10253,27 +10253,27 @@
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S56" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T56" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
@@ -10288,27 +10288,27 @@
       </c>
       <c r="X56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Y56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AB56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AC56" t="inlineStr">
@@ -10323,39 +10323,39 @@
       </c>
       <c r="AE56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AF56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AG56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AH56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AI56" t="inlineStr">
         <is>
-          <t>1820</t>
+          <t>1260</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>郭家渝</t>
+          <t>郭亮均</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Zoe Kuo</t>
+          <t>Joy Kuo</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -10470,22 +10470,22 @@
       </c>
       <c r="Y57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AB57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AC57" t="inlineStr">
@@ -10500,39 +10500,39 @@
       </c>
       <c r="AE57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AF57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AG57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AH57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AI57" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>1260</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>黃承緯</t>
+          <t>李漩靜</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Eric Huang</t>
+          <t>Jamie Lee</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -10647,22 +10647,22 @@
       </c>
       <c r="Y58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AA58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AB58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AC58" t="inlineStr">
@@ -10677,39 +10677,39 @@
       </c>
       <c r="AE58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AF58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AG58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AH58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AI58" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>1260</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>郭亮均</t>
+          <t>李品于</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Joy Kuo</t>
+          <t>Spring Lee</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -10824,22 +10824,22 @@
       </c>
       <c r="Y59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AA59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AB59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AC59" t="inlineStr">
@@ -10854,44 +10854,44 @@
       </c>
       <c r="AE59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AF59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AG59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AH59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AI59" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>1260</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>李漩靜</t>
+          <t>江德蓉</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Jamie Lee</t>
+          <t>Leila Jiang</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>2AA8A</t>
+          <t>2AA8C</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -11031,7 +11031,7 @@
       </c>
       <c r="AE60" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AF60" t="inlineStr">
@@ -11051,24 +11051,24 @@
       </c>
       <c r="AI60" t="inlineStr">
         <is>
-          <t>1260</t>
+          <t>1120</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>李品于</t>
+          <t>謝昔祥</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Spring Lee</t>
+          <t>Adonis Hsieh</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>2AA8A</t>
+          <t>2AA8C</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -11173,7 +11173,7 @@
       </c>
       <c r="X61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Y61" t="inlineStr">
@@ -11228,19 +11228,19 @@
       </c>
       <c r="AI61" t="inlineStr">
         <is>
-          <t>1120</t>
+          <t>1260</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>江德蓉</t>
+          <t>陳璜琪</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Leila Jiang</t>
+          <t>Vincent Chen</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -11355,22 +11355,22 @@
       </c>
       <c r="Y62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AA62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AB62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AC62" t="inlineStr">
@@ -11405,44 +11405,44 @@
       </c>
       <c r="AI62" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>700</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>謝昔祥</t>
+          <t>謝勝旭</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Adonis Hsieh</t>
+          <t>Benjamin Hsieh</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>2AA8C</t>
+          <t>2AA8D</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -11457,27 +11457,27 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
@@ -11492,27 +11492,27 @@
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="T63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
@@ -11542,12 +11542,12 @@
       </c>
       <c r="AA63" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AB63" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AC63" t="inlineStr">
@@ -11582,24 +11582,24 @@
       </c>
       <c r="AI63" t="inlineStr">
         <is>
-          <t>1260</t>
+          <t>2940</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>陳璜琪</t>
+          <t>林華宸</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Vincent Chen</t>
+          <t>Wayne Lin</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>2AA8C</t>
+          <t>2AA8S</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -11739,64 +11739,64 @@
       </c>
       <c r="AE64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AF64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AG64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AH64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AI64" t="inlineStr">
         <is>
-          <t>700</t>
+          <t>1260</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>謝勝旭</t>
+          <t>張雅惠</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Benjamin Hsieh</t>
+          <t>Sofeya Chang</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>2AA8D</t>
+          <t>2AA8S</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -11811,27 +11811,27 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
@@ -11846,27 +11846,27 @@
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S65" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T65" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
@@ -11881,27 +11881,27 @@
       </c>
       <c r="X65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Y65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AA65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AB65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AC65" t="inlineStr">
@@ -11916,44 +11916,44 @@
       </c>
       <c r="AE65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AF65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AG65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AH65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AI65" t="inlineStr">
         <is>
-          <t>1960</t>
+          <t>1260</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>謝勝旭</t>
+          <t>蔡明彬</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Benjamin Hsieh</t>
+          <t>Jeff Tsai</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>2AA8D</t>
+          <t>2AA8S</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -12058,7 +12058,7 @@
       </c>
       <c r="X66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Y66" t="inlineStr">
@@ -12073,12 +12073,12 @@
       </c>
       <c r="AA66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AB66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AC66" t="inlineStr">
@@ -12113,19 +12113,19 @@
       </c>
       <c r="AI66" t="inlineStr">
         <is>
-          <t>840</t>
+          <t>1260</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>林華宸</t>
+          <t>胡美燕</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Wayne Lin</t>
+          <t>May Hu</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -12297,37 +12297,32 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>張雅惠</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Sofeya Chang</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>2AA8S</t>
+          <t>08</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>520</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>520</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>280</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>560</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -12337,32 +12332,32 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>660</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>520</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>520</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>560</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>520</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
@@ -12372,37 +12367,37 @@
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>660</t>
         </is>
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>520</t>
         </is>
       </c>
       <c r="S68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>660</t>
         </is>
       </c>
       <c r="T68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>660</t>
         </is>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>660</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="W68" t="inlineStr">
@@ -12412,32 +12407,32 @@
       </c>
       <c r="X68" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>8,080</t>
         </is>
       </c>
       <c r="Y68" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>7,520</t>
         </is>
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>7,240</t>
         </is>
       </c>
       <c r="AA68" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>7,400</t>
         </is>
       </c>
       <c r="AB68" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>6,440</t>
         </is>
       </c>
       <c r="AC68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1,540</t>
         </is>
       </c>
       <c r="AD68" t="inlineStr">
@@ -12447,553 +12442,27 @@
       </c>
       <c r="AE68" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>7,519</t>
         </is>
       </c>
       <c r="AF68" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>7,660</t>
         </is>
       </c>
       <c r="AG68" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>7,660</t>
         </is>
       </c>
       <c r="AH68" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>7,800</t>
         </is>
       </c>
       <c r="AI68" t="inlineStr">
         <is>
-          <t>1260</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>蔡明彬</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>Jeff Tsai</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>2AA8S</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X69" t="inlineStr">
-        <is>
-          <t>140</t>
-        </is>
-      </c>
-      <c r="Y69" t="inlineStr">
-        <is>
-          <t>140</t>
-        </is>
-      </c>
-      <c r="Z69" t="inlineStr">
-        <is>
-          <t>140</t>
-        </is>
-      </c>
-      <c r="AA69" t="inlineStr">
-        <is>
-          <t>140</t>
-        </is>
-      </c>
-      <c r="AB69" t="inlineStr">
-        <is>
-          <t>140</t>
-        </is>
-      </c>
-      <c r="AC69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE69" t="inlineStr">
-        <is>
-          <t>140</t>
-        </is>
-      </c>
-      <c r="AF69" t="inlineStr">
-        <is>
-          <t>140</t>
-        </is>
-      </c>
-      <c r="AG69" t="inlineStr">
-        <is>
-          <t>140</t>
-        </is>
-      </c>
-      <c r="AH69" t="inlineStr">
-        <is>
-          <t>140</t>
-        </is>
-      </c>
-      <c r="AI69" t="inlineStr">
-        <is>
-          <t>1260</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>胡美燕</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>May Hu</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>2AA8S</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X70" t="inlineStr">
-        <is>
-          <t>140</t>
-        </is>
-      </c>
-      <c r="Y70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI70" t="inlineStr">
-        <is>
-          <t>140</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>08</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>520</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>520</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>280</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>560</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>140</t>
-        </is>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>660</t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>520</t>
-        </is>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>520</t>
-        </is>
-      </c>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>560</t>
-        </is>
-      </c>
-      <c r="N71" t="inlineStr">
-        <is>
-          <t>520</t>
-        </is>
-      </c>
-      <c r="O71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P71" t="inlineStr">
-        <is>
-          <t>140</t>
-        </is>
-      </c>
-      <c r="Q71" t="inlineStr">
-        <is>
-          <t>660</t>
-        </is>
-      </c>
-      <c r="R71" t="inlineStr">
-        <is>
-          <t>520</t>
-        </is>
-      </c>
-      <c r="S71" t="inlineStr">
-        <is>
-          <t>660</t>
-        </is>
-      </c>
-      <c r="T71" t="inlineStr">
-        <is>
-          <t>660</t>
-        </is>
-      </c>
-      <c r="U71" t="inlineStr">
-        <is>
-          <t>660</t>
-        </is>
-      </c>
-      <c r="V71" t="inlineStr">
-        <is>
-          <t>140</t>
-        </is>
-      </c>
-      <c r="W71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X71" t="inlineStr">
-        <is>
-          <t>7,240</t>
-        </is>
-      </c>
-      <c r="Y71" t="inlineStr">
-        <is>
-          <t>4,300</t>
-        </is>
-      </c>
-      <c r="Z71" t="inlineStr">
-        <is>
-          <t>4,020</t>
-        </is>
-      </c>
-      <c r="AA71" t="inlineStr">
-        <is>
-          <t>4,320</t>
-        </is>
-      </c>
-      <c r="AB71" t="inlineStr">
-        <is>
-          <t>3,920</t>
-        </is>
-      </c>
-      <c r="AC71" t="inlineStr">
-        <is>
-          <t>700</t>
-        </is>
-      </c>
-      <c r="AD71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE71" t="inlineStr">
-        <is>
-          <t>4,439</t>
-        </is>
-      </c>
-      <c r="AF71" t="inlineStr">
-        <is>
-          <t>4,440</t>
-        </is>
-      </c>
-      <c r="AG71" t="inlineStr">
-        <is>
-          <t>4,440</t>
-        </is>
-      </c>
-      <c r="AH71" t="inlineStr">
-        <is>
-          <t>4,300</t>
-        </is>
-      </c>
-      <c r="AI71" t="inlineStr">
-        <is>
-          <t>50,359</t>
+          <t>77,099</t>
         </is>
       </c>
     </row>
